--- a/Expenses/Expenses 07-Apr-2017.xlsx
+++ b/Expenses/Expenses 07-Apr-2017.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Expenses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Expenses</t>
   </si>
@@ -88,16 +98,19 @@
   </si>
   <si>
     <t>RE Receipt for Your April 5th Order with McMaster-Carr</t>
+  </si>
+  <si>
+    <t>with Monica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +161,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -194,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,31 +455,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -485,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42804</v>
       </c>
@@ -504,11 +524,14 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42816</v>
       </c>
@@ -531,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42822</v>
       </c>
@@ -554,7 +577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="30">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42824</v>
       </c>
@@ -575,7 +598,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42832</v>
       </c>
@@ -607,24 +630,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
